--- a/podaci.xlsx
+++ b/podaci.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2011" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="636">
   <si>
     <t>1. kolo</t>
   </si>
@@ -1934,6 +1934,9 @@
   </si>
   <si>
     <t>22 25 26 28 29 33 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2264,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="A311" sqref="A311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3948,8 +3951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A312"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A312"/>
+    <sheetView topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="A311" sqref="A311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5630,10 +5633,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A312"/>
+  <dimension ref="A1:B312"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" workbookViewId="0">
-      <selection sqref="A1:A312"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7161,42 +7164,45 @@
         <v>203</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>2</v>
       </c>

--- a/podaci.xlsx
+++ b/podaci.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2011" sheetId="1" r:id="rId1"/>
@@ -5635,7 +5635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+    <sheetView topLeftCell="A295" workbookViewId="0">
       <selection activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
@@ -7322,8 +7322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A312"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="A308" sqref="A308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/podaci.xlsx
+++ b/podaci.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2011" sheetId="1" r:id="rId1"/>
@@ -7322,7 +7322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+    <sheetView topLeftCell="A289" workbookViewId="0">
       <selection activeCell="A308" sqref="A308"/>
     </sheetView>
   </sheetViews>
@@ -8993,8 +8993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A253"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:XFD121"/>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10176,8 +10176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
